--- a/biology/Botanique/Cestrum_laevigatum/Cestrum_laevigatum.xlsx
+++ b/biology/Botanique/Cestrum_laevigatum/Cestrum_laevigatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cestrum laevigatum est une espèce de la famille des Solanaceae. C'est un arbuste ou un arbre qui pousse principalement dans le biome tropical saisonnier sec[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cestrum laevigatum est une espèce de la famille des Solanaceae. C'est un arbuste ou un arbre qui pousse principalement dans le biome tropical saisonnier sec.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits verts, les feuilles et les fleurs contiennent des saponines. Les feuilles peuvent être fumées en guise de marijuana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits verts, les feuilles et les fleurs contiennent des saponines. Les feuilles peuvent être fumées en guise de marijuana.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[3] : Argentine, Brésil, Paraguay.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Argentine, Brésil, Paraguay.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cestrum laevigatum Schltdl.[4].
-Cestrum laevigatum a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cestrum laevigatum Schltdl..
+Cestrum laevigatum a pour synonymes :
 Cestrum arvense Vell.
 Cestrum axillare Vell.
 Cestrum bella-sombra Dunal
